--- a/Parte1/Datos/costoAño.xlsx
+++ b/Parte1/Datos/costoAño.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\Trabajo\proyectoFondecyt\Parte1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastian/Documents/ProyectoFondecyt/Parte1/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B81CECE-7616-4E4E-A671-A5E05A985408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F36EF68-D066-7E45-80FA-C66FDB196E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -374,633 +373,656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2025</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>2943</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>2943</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>2943</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>29.43</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>29.43</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>29.43</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2026</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2913.57</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2913.57</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>2913.57</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>29.135700000000003</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>29.135700000000003</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>29.135700000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2027</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2884.4343000000003</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2884.4343000000003</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2884.4343000000003</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>28.844343000000006</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>28.844343000000006</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>28.844343000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2028</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2855.5899570000001</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2855.5899570000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2855.5899570000001</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>28.555899570000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>28.555899570000001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>28.555899570000001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2029</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2827.0340574300003</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2827.0340574300003</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2827.0340574300003</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>28.270340574300004</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>28.270340574300004</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>28.270340574300004</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2030</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2798.7637168557003</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>2798.7637168557003</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>2798.7637168557003</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>27.987637168557004</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>27.987637168557004</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>27.987637168557004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2031</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>2770.7760796871435</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2770.7760796871435</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2770.7760796871435</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>27.707760796871437</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>27.707760796871437</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>27.707760796871437</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2032</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>2743.0683188902722</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>2743.0683188902722</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>2743.0683188902722</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>27.430683188902723</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>27.430683188902723</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>27.430683188902723</v>
       </c>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>2033</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>2715.6376357013696</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2715.6376357013696</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>2715.6376357013696</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>27.156376357013698</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>27.156376357013698</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>27.156376357013698</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2034</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2688.4812593443557</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>2688.4812593443557</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>2688.4812593443557</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>26.884812593443559</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>26.884812593443559</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>26.884812593443559</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2035</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>2661.596446750912</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>2661.596446750912</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>2661.596446750912</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>26.615964467509119</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>26.615964467509119</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>26.615964467509119</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2036</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>2634.980482283403</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>2634.980482283403</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>2634.980482283403</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>26.349804822834031</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>26.349804822834031</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>26.349804822834031</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2037</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>2608.6306774605691</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>2608.6306774605691</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>2608.6306774605691</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>26.086306774605692</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>26.086306774605692</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>26.086306774605692</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2038</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>2582.5443706859633</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>2582.5443706859633</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>2582.5443706859633</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>25.825443706859634</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>25.825443706859634</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>25.825443706859634</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>2039</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>2556.7189269791038</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>2556.7189269791038</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>2556.7189269791038</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>25.56718926979104</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>25.56718926979104</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>25.56718926979104</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2040</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>2531.1517377093128</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>2531.1517377093128</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>2531.1517377093128</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>25.311517377093129</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>25.311517377093129</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>25.311517377093129</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2041</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>2505.8402203322198</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>2505.8402203322198</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>2505.8402203322198</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>25.058402203322199</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>25.058402203322199</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>25.058402203322199</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>2042</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>2480.7818181288976</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>2480.7818181288976</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>2480.7818181288976</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>24.807818181288976</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>24.807818181288976</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>24.807818181288976</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>2043</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>2455.9739999476087</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>2455.9739999476087</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>2455.9739999476087</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>24.559739999476086</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>24.559739999476086</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>24.559739999476086</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>2044</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>2431.4142599481324</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>2431.4142599481324</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>2431.4142599481324</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>24.314142599481325</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>24.314142599481325</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>24.314142599481325</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>2045</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>2407.1001173486511</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>2407.1001173486511</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>2407.1001173486511</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>24.071001173486511</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>24.071001173486511</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>24.071001173486511</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>2046</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>2383.0291161751647</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>2383.0291161751647</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>2383.0291161751647</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>23.830291161751649</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>23.830291161751649</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>23.830291161751649</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>2047</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>2359.1988250134132</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>2359.1988250134132</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>2359.1988250134132</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>23.591988250134133</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>23.591988250134133</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>23.591988250134133</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2048</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>2335.6068367632788</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>2335.6068367632788</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>2335.6068367632788</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>23.356068367632787</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>23.356068367632787</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>23.356068367632787</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2049</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>2312.250768395646</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>2312.250768395646</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>2312.250768395646</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>23.12250768395646</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>23.12250768395646</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>23.12250768395646</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2050</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>2289.1282607116896</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>2289.1282607116896</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>2289.1282607116896</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>22.891282607116896</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>22.891282607116896</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
+        <v>22.891282607116896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2051</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2289.1282607116896</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2289.1282607116896</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2289.1282607116896</v>
+      </c>
+      <c r="E28" s="2">
+        <v>22.891282607116896</v>
+      </c>
+      <c r="F28" s="2">
+        <v>22.891282607116896</v>
+      </c>
+      <c r="G28" s="2">
         <v>22.891282607116896</v>
       </c>
     </row>
